--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_715.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_715.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g32655-d1223148-Reviews-Starlight_Inn-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>320</t>
+  </si>
+  <si>
+    <t>21</t>
   </si>
   <si>
     <t>?</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_715.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_715.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="116">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,222 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>07/10/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1223148-r203911772-Starlight_Inn-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>32655</t>
+  </si>
+  <si>
+    <t>1223148</t>
+  </si>
+  <si>
+    <t>203911772</t>
+  </si>
+  <si>
+    <t>05/03/2014</t>
+  </si>
+  <si>
+    <t>Dirty</t>
+  </si>
+  <si>
+    <t>If you read this and still decide to stay there it becomes your fault.  The people were helpful at the desk but the room was dirty.  There was black mold in the bathroom shower so we chose not to take a shower there.  There was dirt and paper in the corners of the bathrooms including hair.  YUK!  Not a good place to stay.  Try something a bit more upscale so you can be happy.</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1223148-r194662181-Starlight_Inn-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>194662181</t>
+  </si>
+  <si>
+    <t>02/19/2014</t>
+  </si>
+  <si>
+    <t>Starlight Inn-Canoga Park</t>
+  </si>
+  <si>
+    <t>I stayed at this place a little over three years ago, being that I am on disability and disabled I had to result to a 2 Star Hotel! Well, a few years ago I found the place to be a delight, very clean and very good customer service. unfortunately, that has changed over the years. My room was SOILED! The carpet, bedcover and curtains were sour! And to top it off my lock had to be jimmied in order to work! And to make matters worse the customer service were atrocious! I'm a stickler for: You get what you pay for, However, this place should be closed down for health reasons, if for nothing else!!!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>I stayed at this place a little over three years ago, being that I am on disability and disabled I had to result to a 2 Star Hotel! Well, a few years ago I found the place to be a delight, very clean and very good customer service. unfortunately, that has changed over the years. My room was SOILED! The carpet, bedcover and curtains were sour! And to top it off my lock had to be jimmied in order to work! And to make matters worse the customer service were atrocious! I'm a stickler for: You get what you pay for, However, this place should be closed down for health reasons, if for nothing else!!!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1223148-r143954533-Starlight_Inn-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>143954533</t>
+  </si>
+  <si>
+    <t>10/28/2012</t>
+  </si>
+  <si>
+    <t>worst place ever!!!</t>
+  </si>
+  <si>
+    <t>Worst Place ever!!! Hotel Room Doesn’t have It’s own microwave like it says online. You have to go downstairs out to the parking lot to use the hotels microwave. You ask for a non-smoking room and you get a smoking room. Ac doesn’t work. The tables and the bathroom sink were dirty and not wiped down. The sink and re shower tub is clogged up and smells really bad. My boyfriend found porn magazines in one of the dresser. Ashes left over from cigarettes from last customers were let on the floor and tables. Rooms don’t have a ironing board o iron clothes no ice machines. Very poor customer service. When asked for extra towels, the lady said she didn’t have extras to give me because she only had enough for her service? Wth does that mean??? Oh one last thing! There’s an elevator but you can’t use it! Its only for their services ,and it’s a three story building! Good luck with your luggage!MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2012</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Worst Place ever!!! Hotel Room Doesn’t have It’s own microwave like it says online. You have to go downstairs out to the parking lot to use the hotels microwave. You ask for a non-smoking room and you get a smoking room. Ac doesn’t work. The tables and the bathroom sink were dirty and not wiped down. The sink and re shower tub is clogged up and smells really bad. My boyfriend found porn magazines in one of the dresser. Ashes left over from cigarettes from last customers were let on the floor and tables. Rooms don’t have a ironing board o iron clothes no ice machines. Very poor customer service. When asked for extra towels, the lady said she didn’t have extras to give me because she only had enough for her service? Wth does that mean??? Oh one last thing! There’s an elevator but you can’t use it! Its only for their services ,and it’s a three story building! Good luck with your luggage!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1223148-r135399554-Starlight_Inn-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>135399554</t>
+  </si>
+  <si>
+    <t>07/26/2012</t>
+  </si>
+  <si>
+    <t>Starlight Inn Motel in Alhambra</t>
+  </si>
+  <si>
+    <t>Yes, it is not a review of the motel in Winnetka, but of a motel of the same name in Alhambra, on Alhambra Blvd.  However, it appears both motels are of similar poor quality...The most unbelievably noisy motel ever imagined, with doors banging, feet clumping loudly around, voices calling from room across to room and from the upstairs balcony down to the parking lot below until as late as 4AM on weekends and 2AM on weeknights. Even adorable little children running freely around screaming into the wee hours of the morning. The best part? The source of the noise was the staff who live on site! And when I asked politely if the children could please be restricted from running and screaming past my door at night, I was tongue-lashed by a staff member for complaining. I traveled cross-country for a month staying at cheap-cheap motels, and nowhere did I encounter one as awful as this. The room is clean enough, the management friendly enough, but stay here only if you never wish to sleep.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2012</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>Yes, it is not a review of the motel in Winnetka, but of a motel of the same name in Alhambra, on Alhambra Blvd.  However, it appears both motels are of similar poor quality...The most unbelievably noisy motel ever imagined, with doors banging, feet clumping loudly around, voices calling from room across to room and from the upstairs balcony down to the parking lot below until as late as 4AM on weekends and 2AM on weeknights. Even adorable little children running freely around screaming into the wee hours of the morning. The best part? The source of the noise was the staff who live on site! And when I asked politely if the children could please be restricted from running and screaming past my door at night, I was tongue-lashed by a staff member for complaining. I traveled cross-country for a month staying at cheap-cheap motels, and nowhere did I encounter one as awful as this. The room is clean enough, the management friendly enough, but stay here only if you never wish to sleep.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1223148-r128937678-Starlight_Inn-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>128937678</t>
+  </si>
+  <si>
+    <t>04/27/2012</t>
+  </si>
+  <si>
+    <t>Perfect EXCEPT FOR---</t>
+  </si>
+  <si>
+    <t>The BED BUGSThe Poice Raids, no me, but twice while I was there and that was only 2 nites and 3 days.The RUDE managersThe DIRTY SHEETSThe SMELLY ROOMS...and the list goes on.Don't go here, sleep in your car...before staying here.</t>
+  </si>
+  <si>
+    <t>April 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1223148-r127216042-Starlight_Inn-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>127216042</t>
+  </si>
+  <si>
+    <t>04/03/2012</t>
+  </si>
+  <si>
+    <t>Pretty good</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Everything was pretty nice not perfect but hey you get what you pay for. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1223148-r121337276-Starlight_Inn-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>121337276</t>
+  </si>
+  <si>
+    <t>12/02/2011</t>
+  </si>
+  <si>
+    <t>Bed bug warning TRUE!</t>
+  </si>
+  <si>
+    <t>Im a current resident at the starlight inn but not for much longer! ive been finding bites on my body for the last week but never saw anything so I tried to dismiss it as best i could. hard to do when i kept getting woke up to sharp itching pains all over my body. this morning i awoke very early to the same thing...this time i finally physically SAW one of the little buggers that had been plagueing me! i tried squishing it instantly and stared as its legs continued to twitch on my blanket. DISGUSTING! dont stay here!</t>
+  </si>
+  <si>
+    <t>December 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1223148-r119163241-Starlight_Inn-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>119163241</t>
+  </si>
+  <si>
+    <t>10/10/2011</t>
+  </si>
+  <si>
+    <t>AVOID AT ALL COSTS!!!!!!!!!!!!!!!!!!</t>
+  </si>
+  <si>
+    <t>Rooms are extremly small and the only one way into the place through the front lobby. All other access points are one way only and lock you out if you leave. Microwave &amp; toasters are in common areas and not cleaned on a regular schedule or daily. Internet access is wifi only and provides only moderate signal at best that constantly breaks up or disconnects you completely. Television reception is terrible no matter what channel you are on even HBO they advertise as being available. There are NO closets or dressers to place your clothers into nor are there any type of laundry facilities available to the people.THE MANAGEMENT IS IN BED WITH THE LAPD and the cops are there all the time generally reviewing check in records and running the names for anyone with wants and warrents. We were handcuffed and "detained" for no reason other than we "resembled" someone they were searching for. The LAPD even searched the room twice in a 24 hour period and basically tossed the place and our property only to find NOTHING. If you are considering a stay at this place go have your head examined by a professional unless you desire a terrible experience with constant harrasmentMoreShow less</t>
+  </si>
+  <si>
+    <t>October 2011</t>
+  </si>
+  <si>
+    <t>Rooms are extremly small and the only one way into the place through the front lobby. All other access points are one way only and lock you out if you leave. Microwave &amp; toasters are in common areas and not cleaned on a regular schedule or daily. Internet access is wifi only and provides only moderate signal at best that constantly breaks up or disconnects you completely. Television reception is terrible no matter what channel you are on even HBO they advertise as being available. There are NO closets or dressers to place your clothers into nor are there any type of laundry facilities available to the people.THE MANAGEMENT IS IN BED WITH THE LAPD and the cops are there all the time generally reviewing check in records and running the names for anyone with wants and warrents. We were handcuffed and "detained" for no reason other than we "resembled" someone they were searching for. The LAPD even searched the room twice in a 24 hour period and basically tossed the place and our property only to find NOTHING. If you are considering a stay at this place go have your head examined by a professional unless you desire a terrible experience with constant harrasmentMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1223148-r74549316-Starlight_Inn-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>74549316</t>
+  </si>
+  <si>
+    <t>08/09/2010</t>
+  </si>
+  <si>
+    <t>BED BUGS!!!!</t>
+  </si>
+  <si>
+    <t>Somethig bit me five time one night. One in my L arm, R arm, R leg and face. I look around the bed and I see a huge bed bug!  l look around some more and find 7 more. Most of them are babies very tiny!  I let the front desk guy know, but he probably knows about it, but maybe doesnt care. We checked out 5 minutes after wefound those bugs in the bed. Dirty Motel! Never going back</t>
+  </si>
+  <si>
+    <t>August 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1223148-r31024764-Starlight_Inn-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>31024764</t>
+  </si>
+  <si>
+    <t>05/28/2009</t>
+  </si>
+  <si>
+    <t>Terrible</t>
+  </si>
+  <si>
+    <t>This place is not good I stayed there and had an awful experience I check in and when I got back to my room my grogerys in my fridge were gone thank god thats all I left in there the indian lady there was very rude and all she said was u should not leave there.I had pedilite for my sick 10 month old and soymilk and other juices for my son because my kids were sick and I asked to speak to someone else and she told me there was noone else to speak to only her.They also refuse to give extra towels.She scream at me and all she could say is not my fault u fault.Dont stay here it is truely awfulMoreShow less</t>
+  </si>
+  <si>
+    <t>May 2009</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>This place is not good I stayed there and had an awful experience I check in and when I got back to my room my grogerys in my fridge were gone thank god thats all I left in there the indian lady there was very rude and all she said was u should not leave there.I had pedilite for my sick 10 month old and soymilk and other juices for my son because my kids were sick and I asked to speak to someone else and she told me there was noone else to speak to only her.They also refuse to give extra towels.She scream at me and all she could say is not my fault u fault.Dont stay here it is truely awfulMore</t>
   </si>
 </sst>
 </file>
@@ -648,6 +864,672 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>24816</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1</v>
+      </c>
+      <c r="R2" t="n">
+        <v>4</v>
+      </c>
+      <c r="S2" t="n">
+        <v>1</v>
+      </c>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>3</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>24816</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
+        <v>59</v>
+      </c>
+      <c r="O3" t="s">
+        <v>60</v>
+      </c>
+      <c r="P3" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1</v>
+      </c>
+      <c r="R3" t="n">
+        <v>4</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>1</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>24816</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K4" t="s">
+        <v>65</v>
+      </c>
+      <c r="L4" t="s">
+        <v>66</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
+        <v>67</v>
+      </c>
+      <c r="O4" t="s">
+        <v>68</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1</v>
+      </c>
+      <c r="R4" t="n">
+        <v>3</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>1</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>24816</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>71</v>
+      </c>
+      <c r="J5" t="s">
+        <v>72</v>
+      </c>
+      <c r="K5" t="s">
+        <v>73</v>
+      </c>
+      <c r="L5" t="s">
+        <v>74</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
+        <v>75</v>
+      </c>
+      <c r="O5" t="s">
+        <v>76</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>3</v>
+      </c>
+      <c r="R5" t="n">
+        <v>2</v>
+      </c>
+      <c r="S5" t="n">
+        <v>3</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>1</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>24816</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>78</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>79</v>
+      </c>
+      <c r="J6" t="s">
+        <v>80</v>
+      </c>
+      <c r="K6" t="s">
+        <v>81</v>
+      </c>
+      <c r="L6" t="s">
+        <v>82</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s">
+        <v>83</v>
+      </c>
+      <c r="O6" t="s">
+        <v>53</v>
+      </c>
+      <c r="P6" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2</v>
+      </c>
+      <c r="R6" t="n">
+        <v>3</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>1</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>24816</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>84</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>85</v>
+      </c>
+      <c r="J7" t="s">
+        <v>86</v>
+      </c>
+      <c r="K7" t="s">
+        <v>87</v>
+      </c>
+      <c r="L7" t="s">
+        <v>88</v>
+      </c>
+      <c r="M7" t="n">
+        <v>4</v>
+      </c>
+      <c r="N7" t="s"/>
+      <c r="O7" t="s"/>
+      <c r="P7" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>4</v>
+      </c>
+      <c r="R7" t="n">
+        <v>3</v>
+      </c>
+      <c r="S7" t="n">
+        <v>4</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>4</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>24816</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>89</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>90</v>
+      </c>
+      <c r="J8" t="s">
+        <v>91</v>
+      </c>
+      <c r="K8" t="s">
+        <v>92</v>
+      </c>
+      <c r="L8" t="s">
+        <v>93</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" t="s">
+        <v>94</v>
+      </c>
+      <c r="O8" t="s">
+        <v>76</v>
+      </c>
+      <c r="P8" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1</v>
+      </c>
+      <c r="R8" t="n">
+        <v>3</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>1</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>24816</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>95</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>96</v>
+      </c>
+      <c r="J9" t="s">
+        <v>97</v>
+      </c>
+      <c r="K9" t="s">
+        <v>98</v>
+      </c>
+      <c r="L9" t="s">
+        <v>99</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" t="s">
+        <v>100</v>
+      </c>
+      <c r="O9" t="s">
+        <v>68</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>1</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>24816</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>102</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>103</v>
+      </c>
+      <c r="J10" t="s">
+        <v>104</v>
+      </c>
+      <c r="K10" t="s">
+        <v>105</v>
+      </c>
+      <c r="L10" t="s">
+        <v>106</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" t="s">
+        <v>107</v>
+      </c>
+      <c r="O10" t="s">
+        <v>68</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>1</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>24816</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>108</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>109</v>
+      </c>
+      <c r="J11" t="s">
+        <v>110</v>
+      </c>
+      <c r="K11" t="s">
+        <v>111</v>
+      </c>
+      <c r="L11" t="s">
+        <v>112</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" t="s">
+        <v>113</v>
+      </c>
+      <c r="O11" t="s">
+        <v>114</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2</v>
+      </c>
+      <c r="R11" t="n">
+        <v>2</v>
+      </c>
+      <c r="S11" t="n">
+        <v>2</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>1</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>115</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_715.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_715.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="126">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>Carol N</t>
+  </si>
+  <si>
     <t>07/10/2018</t>
   </si>
   <si>
@@ -180,6 +183,9 @@
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
+    <t>Falina R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1223148-r194662181-Starlight_Inn-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -204,6 +210,9 @@
     <t>I stayed at this place a little over three years ago, being that I am on disability and disabled I had to result to a 2 Star Hotel! Well, a few years ago I found the place to be a delight, very clean and very good customer service. unfortunately, that has changed over the years. My room was SOILED! The carpet, bedcover and curtains were sour! And to top it off my lock had to be jimmied in order to work! And to make matters worse the customer service were atrocious! I'm a stickler for: You get what you pay for, However, this place should be closed down for health reasons, if for nothing else!!!!!More</t>
   </si>
   <si>
+    <t>bj x</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1223148-r143954533-Starlight_Inn-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -228,6 +237,9 @@
     <t>Worst Place ever!!! Hotel Room Doesn’t have It’s own microwave like it says online. You have to go downstairs out to the parking lot to use the hotels microwave. You ask for a non-smoking room and you get a smoking room. Ac doesn’t work. The tables and the bathroom sink were dirty and not wiped down. The sink and re shower tub is clogged up and smells really bad. My boyfriend found porn magazines in one of the dresser. Ashes left over from cigarettes from last customers were let on the floor and tables. Rooms don’t have a ironing board o iron clothes no ice machines. Very poor customer service. When asked for extra towels, the lady said she didn’t have extras to give me because she only had enough for her service? Wth does that mean??? Oh one last thing! There’s an elevator but you can’t use it! Its only for their services ,and it’s a three story building! Good luck with your luggage!More</t>
   </si>
   <si>
+    <t>Outlier B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1223148-r135399554-Starlight_Inn-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -252,6 +264,9 @@
     <t>Yes, it is not a review of the motel in Winnetka, but of a motel of the same name in Alhambra, on Alhambra Blvd.  However, it appears both motels are of similar poor quality...The most unbelievably noisy motel ever imagined, with doors banging, feet clumping loudly around, voices calling from room across to room and from the upstairs balcony down to the parking lot below until as late as 4AM on weekends and 2AM on weeknights. Even adorable little children running freely around screaming into the wee hours of the morning. The best part? The source of the noise was the staff who live on site! And when I asked politely if the children could please be restricted from running and screaming past my door at night, I was tongue-lashed by a staff member for complaining. I traveled cross-country for a month staying at cheap-cheap motels, and nowhere did I encounter one as awful as this. The room is clean enough, the management friendly enough, but stay here only if you never wish to sleep.More</t>
   </si>
   <si>
+    <t>Phil O</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1223148-r128937678-Starlight_Inn-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -270,6 +285,9 @@
     <t>April 2012</t>
   </si>
   <si>
+    <t>U13NY</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1223148-r127216042-Starlight_Inn-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -285,6 +303,9 @@
     <t xml:space="preserve">Everything was pretty nice not perfect but hey you get what you pay for. </t>
   </si>
   <si>
+    <t>angelica r</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1223148-r121337276-Starlight_Inn-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -303,6 +324,9 @@
     <t>December 2011</t>
   </si>
   <si>
+    <t>Rick H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1223148-r119163241-Starlight_Inn-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -324,6 +348,9 @@
     <t>Rooms are extremly small and the only one way into the place through the front lobby. All other access points are one way only and lock you out if you leave. Microwave &amp; toasters are in common areas and not cleaned on a regular schedule or daily. Internet access is wifi only and provides only moderate signal at best that constantly breaks up or disconnects you completely. Television reception is terrible no matter what channel you are on even HBO they advertise as being available. There are NO closets or dressers to place your clothers into nor are there any type of laundry facilities available to the people.THE MANAGEMENT IS IN BED WITH THE LAPD and the cops are there all the time generally reviewing check in records and running the names for anyone with wants and warrents. We were handcuffed and "detained" for no reason other than we "resembled" someone they were searching for. The LAPD even searched the room twice in a 24 hour period and basically tossed the place and our property only to find NOTHING. If you are considering a stay at this place go have your head examined by a professional unless you desire a terrible experience with constant harrasmentMore</t>
   </si>
   <si>
+    <t>MayraMU</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1223148-r74549316-Starlight_Inn-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -340,6 +367,9 @@
   </si>
   <si>
     <t>August 2010</t>
+  </si>
+  <si>
+    <t>caguirre15</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1223148-r31024764-Starlight_Inn-Los_Angeles_California.html</t>
@@ -868,43 +898,47 @@
       <c r="A2" t="n">
         <v>24816</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>1</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="n">
         <v>1</v>
@@ -928,50 +962,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>24816</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M3" t="n">
         <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="O3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P3" t="n">
         <v>5</v>
@@ -995,50 +1033,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>24816</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>64</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="J4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="K4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="L4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
       <c r="N4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="O4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P4" t="n">
         <v>1</v>
@@ -1062,50 +1104,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>24816</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>73</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="J5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="K5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="L5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
       <c r="N5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="O5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P5" t="n">
         <v>1</v>
@@ -1129,50 +1175,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>24816</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>82</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="J6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="K6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="L6" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
       <c r="N6" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="O6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P6" t="n">
         <v>2</v>
@@ -1196,41 +1246,45 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>24816</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>89</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="J7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="K7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="L7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="M7" t="n">
         <v>4</v>
@@ -1259,50 +1313,54 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>24816</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>95</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="J8" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="K8" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="L8" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
       <c r="N8" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="O8" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P8" t="n">
         <v>2</v>
@@ -1326,50 +1384,54 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>24816</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>102</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="J9" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="K9" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="L9" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="M9" t="n">
         <v>1</v>
       </c>
       <c r="N9" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="O9" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P9" t="n">
         <v>1</v>
@@ -1393,50 +1455,54 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>24816</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>110</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="J10" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="K10" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="L10" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
       <c r="N10" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="O10" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P10" t="n">
         <v>1</v>
@@ -1460,50 +1526,54 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>24816</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>117</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="J11" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="K11" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="L11" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
       <c r="N11" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="O11" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="P11" t="n">
         <v>1</v>
@@ -1527,7 +1597,7 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
